--- a/25NKUMCM-C/1_university_employment.xlsx
+++ b/25NKUMCM-C/1_university_employment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCM\25NKUMCM-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C56E5EF-242C-417A-821E-65C2E0DBF8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBE0AD7-ACA4-4AFF-9DE4-821DC7492579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -1705,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
